--- a/output/google_maps_data_SMA_Bantul.xlsx
+++ b/output/google_maps_data_SMA_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 367547</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.897433</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.897433</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.322589</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5c5bf30ef9:0xb95096e97f5f744a!8m2!3d-7.8974332!4d110.3225889!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11b7g11znd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5c5bf30ef9:0xb95096e97f5f744a!8m2!3d-7.8974332!4d110.3225889!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11b7g11znd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(0274) 367309</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.894192</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.894192</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.33833</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55f140e47481:0x34b7ae77b82b3f2d!8m2!3d-7.8941924!4d110.3383303!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121jcf2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55f140e47481:0x34b7ae77b82b3f2d!8m2!3d-7.8941924!4d110.3383303!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F121jcf2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -601,25 +594,24 @@
           <t>(0274) 765032</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.881422</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.881422</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.342848</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+3+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5604a1fd19:0xd598e520bea9e3fb!8m2!3d-7.8814222!4d110.342848!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm2xg_kw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+3+Bantul/@-7.8974332,110.2504911,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5604a1fd19:0xd598e520bea9e3fb!8m2!3d-7.8814222!4d110.342848!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm2xg_kw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -642,25 +634,24 @@
           <t>(0274) 373824</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.809244</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.809244</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.417225</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Banguntapan/@-7.8092443,110.3451271,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5748d249b8b9:0x3d1b0fa57eed13d9!8m2!3d-7.8092443!4d110.4172249!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120x5zsz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Banguntapan/@-7.8092443,110.3451271,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5748d249b8b9:0x3d1b0fa57eed13d9!8m2!3d-7.8092443!4d110.4172249!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120x5zsz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -683,25 +674,24 @@
           <t>(0274) 374459</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.842893</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.842893</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.362544</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sewon/@-7.8428926,110.2904465,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a564e827fa9b1:0x412e7d8cbcbdbbfc!8m2!3d-7.8428926!4d110.3625443!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11hbrcpxh5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sewon/@-7.8428926,110.2904465,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a564e827fa9b1:0x412e7d8cbcbdbbfc!8m2!3d-7.8428926!4d110.3625443!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11hbrcpxh5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -728,25 +718,24 @@
           <t>(0274) 367577</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.884996</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.884996</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.318169</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+17+BANTUL/@-7.8849959,110.246071,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff77446728d7:0x7e9fb0e402474c97!8m2!3d-7.8849959!4d110.3181688!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11np4dwn83?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+17+BANTUL/@-7.8849959,110.246071,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff77446728d7:0x7e9fb0e402474c97!8m2!3d-7.8849959!4d110.3181688!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11np4dwn83?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -773,25 +762,24 @@
           <t>(0274) 2810161</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.890003</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.890003</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.374819</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Jetis/@-7.8900025,110.3027208,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55964bbd3bf1:0x146645ca92f53378!8m2!3d-7.8900025!4d110.3748186!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120t49r3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Jetis/@-7.8900025,110.3027208,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55964bbd3bf1:0x146645ca92f53378!8m2!3d-7.8900025!4d110.3748186!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F120t49r3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -818,25 +806,24 @@
           <t>(0274) 2811907</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.957253</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.957253</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.267179</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sanden/@-7.9572527,110.1950809,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7afe24e9223b7b:0xaa41b8d68d4517e8!8m2!3d-7.9572527!4d110.2671787!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11c5stx3fg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sanden/@-7.9572527,110.1950809,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7afe24e9223b7b:0xaa41b8d68d4517e8!8m2!3d-7.9572527!4d110.2671787!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11c5stx3fg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -863,25 +850,24 @@
           <t>(0274) 6461049</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.8</v>
+        <v>-7.881778</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.881778</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.30482</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pajangan/@-7.881778,110.2327222,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af8b85c5916f7:0xb4361831a9b82b20!8m2!3d-7.881778!4d110.30482!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm54hpkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pajangan/@-7.881778,110.2327222,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af8b85c5916f7:0xb4361831a9b82b20!8m2!3d-7.881778!4d110.30482!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm54hpkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -908,25 +894,24 @@
           <t>0821-6970-3899</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.891241</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.891241</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.327322</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+MUHAMMADIYAH+1+BANTUL/@-7.881778,110.2327222,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff4153071459:0x7ffe35f67ca92dcb!8m2!3d-7.8912412!4d110.3273216!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11gyc6_drq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+MUHAMMADIYAH+1+BANTUL/@-7.881778,110.2327222,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff4153071459:0x7ffe35f67ca92dcb!8m2!3d-7.8912412!4d110.3273216!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F11gyc6_drq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -949,25 +934,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.957899</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.957899</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.3456</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pundong/@-7.9578987,110.2735023,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a554dd266983f:0x99571c5e3036781d!8m2!3d-7.9578987!4d110.3456001!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm53rl1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pundong/@-7.9578987,110.2735023,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a554dd266983f:0x99571c5e3036781d!8m2!3d-7.9578987!4d110.3456001!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm53rl1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -994,25 +978,24 @@
           <t>(0274) 798487</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.804521</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.804521</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.273201</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sedayu/@-7.804521,110.2011028,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af7b1f4b81d97:0x3a7dbfc86d9b0379!8m2!3d-7.804521!4d110.2732006!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hd_9r1dg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sedayu/@-7.804521,110.2011028,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af7b1f4b81d97:0x3a7dbfc86d9b0379!8m2!3d-7.804521!4d110.2732006!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hd_9r1dg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1039,25 +1022,24 @@
           <t>(0274) 6460912</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.3</v>
+        <v>-7.910365</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.910365</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.392912</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Imogiri/@-7.9103655,110.3208137,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5787bd5b6bc5:0xa24f9126d22b27ea!8m2!3d-7.9103655!4d110.3929115!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm2szpvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Imogiri/@-7.9103655,110.3208137,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5787bd5b6bc5:0xa24f9126d22b27ea!8m2!3d-7.9103655!4d110.3929115!15sCgpTTUEgQmFudHVskgELaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F1hm2szpvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1084,25 +1066,24 @@
           <t>(0274) 367139</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.927032</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.927032</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.319726</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Katolik+Stella+Duce,+Bantul/@-7.9270317,110.2476278,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff849f0ef8b1:0x9b8e5851d1f48373!8m2!3d-7.9270317!4d110.3197256!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm3pc632?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Katolik+Stella+Duce,+Bantul/@-7.9270317,110.2476278,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff849f0ef8b1:0x9b8e5851d1f48373!8m2!3d-7.9270317!4d110.3197256!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm3pc632?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1129,25 +1110,24 @@
           <t>0817-0000-778</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.8</v>
+        <v>-7.808025</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.808025</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.272095</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+-+SMP+-+SMA+Kesatuan+Bangsa+Bilingual+Boarding+School/@-7.808025,110.1999971,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9d07dbd6775:0x32b75f3aa24b7570!8m2!3d-7.808025!4d110.2720949!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F1pp2t_ltn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+-+SMP+-+SMA+Kesatuan+Bangsa+Bilingual+Boarding+School/@-7.808025,110.1999971,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9d07dbd6775:0x32b75f3aa24b7570!8m2!3d-7.808025!4d110.2720949!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F1pp2t_ltn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1170,25 +1150,24 @@
           <t>(0274) 7480304</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>-7.937803</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.937803</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.466838</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Dlingo+Bantul/@-7.9378035,110.3947399,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a532235b46e75:0xfca70e906af2270c!8m2!3d-7.9378035!4d110.4668377!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmFNMjlmZVdoQlJSQULgAQD6AQQIABA5!16s%2Fg%2F1pzw57zq_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Dlingo+Bantul/@-7.9378035,110.3947399,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a532235b46e75:0xfca70e906af2270c!8m2!3d-7.9378035!4d110.4668377!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmFNMjlmZVdoQlJSQULgAQD6AQQIABA5!16s%2Fg%2F1pzw57zq_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1211,25 +1190,24 @@
           <t>(0274) 4546765</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.803653</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.803653</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.26014</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+Sedayu/@-7.8036535,110.1880422,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9dfd21af655:0x11c4dd74d90ebc35!8m2!3d-7.8036535!4d110.26014!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9jVnBEZEVSUkVBReABAPoBBQiBARA3!16s%2Fg%2F11bbqx77fj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+Sedayu/@-7.8036535,110.1880422,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9dfd21af655:0x11c4dd74d90ebc35!8m2!3d-7.8036535!4d110.26014!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9jVnBEZEVSUkVBReABAPoBBQiBARA3!16s%2Fg%2F11bbqx77fj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1256,25 +1234,24 @@
           <t>(0274) 4396249</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.855837</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.855837</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.370785</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Sewon/@-7.8558374,110.2986867,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a565db99dcf11:0x9166dc6b51bf1e4f!8m2!3d-7.8558374!4d110.3707845!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnVhVW95U25wblJSQULgAQD6AQQIABAT!16s%2Fg%2F1hm2sttkx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Sewon/@-7.8558374,110.2986867,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a565db99dcf11:0x9166dc6b51bf1e4f!8m2!3d-7.8558374!4d110.3707845!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnVhVW95U25wblJSQULgAQD6AQQIABAT!16s%2Fg%2F1hm2sttkx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1297,25 +1274,24 @@
           <t>(0274) 378100</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.825772</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.825772</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.360957</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Ali+Maksum/@-7.8558374,110.2986867,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ba224830d7:0x3d2960c73bd93708!8m2!3d-7.8257717!4d110.3609567!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnljbVpRWkdGUkVBReABAPoBBAgAECs!16s%2Fg%2F11b7p_ctml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Ali+Maksum/@-7.8558374,110.2986867,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ba224830d7:0x3d2960c73bd93708!8m2!3d-7.8257717!4d110.3609567!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnljbVpRWkdGUkVBReABAPoBBAgAECs!16s%2Fg%2F11b7p_ctml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1342,25 +1318,24 @@
           <t>(0274) 6464750</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.942792</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.942792</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.244297</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Srandakan/@-7.942792,110.1721992,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7afe7067984a57:0x40db223e71430fde!8m2!3d-7.942792!4d110.244297!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNYTjFNMmgzUlJBQuABAPoBBAgAEC4!16s%2Fg%2F1hdz1qvwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Srandakan/@-7.942792,110.1721992,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7afe7067984a57:0x40db223e71430fde!8m2!3d-7.942792!4d110.244297!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNYTjFNMmgzUlJBQuABAPoBBAgAEC4!16s%2Fg%2F1hdz1qvwv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1379,25 +1354,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.891843</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.891843</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.352548</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sma+Patria+Bantul/@-7.8918432,110.2804501,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55e84d715555:0xd3528a2c59ef975!8m2!3d-7.8918432!4d110.3525479!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkVOWE51ZG1sUlJSQULgAQD6AQQIABA3!16s%2Fg%2F11rgh774wb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sma+Patria+Bantul/@-7.8918432,110.2804501,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55e84d715555:0xd3528a2c59ef975!8m2!3d-7.8918432!4d110.3525479!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWyaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkVOWE51ZG1sUlJSQULgAQD6AQQIABA3!16s%2Fg%2F11rgh774wb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1424,25 +1398,24 @@
           <t>(0274) 380053</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.8</v>
+        <v>-7.841823</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.841823</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.343682</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Kasihan/@-7.8918432,110.2804501,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a56326e5d0357:0xd8eec3961b96bc70!8m2!3d-7.8418233!4d110.343682!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9OWEUzVFMxUlJSQULgAQD6AQQIABAX!16s%2Fg%2F1hm2yksw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Kasihan/@-7.8918432,110.2804501,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a56326e5d0357:0xd8eec3961b96bc70!8m2!3d-7.8418233!4d110.343682!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTm9OWEUzVFMxUlJSQULgAQD6AQQIABAX!16s%2Fg%2F1hm2yksw3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1469,25 +1442,24 @@
           <t>(0274) 489511</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>-7.785521</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.785521</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.406373</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Bopkri+Banguntapan/@-7.7855208,110.3342748,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5923dc88b47b:0x2fd139efca998b18!8m2!3d-7.7855208!4d110.4063726!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ2JWQlBlbk5CUlJBQuABAPoBBAgAECk!16s%2Fg%2F11n6tnvd1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Bopkri+Banguntapan/@-7.7855208,110.3342748,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5923dc88b47b:0x2fd139efca998b18!8m2!3d-7.7855208!4d110.4063726!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ2JWQlBlbk5CUlJBQuABAPoBBAgAECk!16s%2Fg%2F11n6tnvd1t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1514,25 +1486,24 @@
           <t>(0274) 4415024</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>-7.867875</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.867875</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.397221</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Pleret/@-7.8678746,110.3251228,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a56a48e062da5:0xd79555c5b6191d9f!8m2!3d-7.8678746!4d110.3972206!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hf89g6hm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Pleret/@-7.8678746,110.3251228,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a56a48e062da5:0xd79555c5b6191d9f!8m2!3d-7.8678746!4d110.3972206!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hf89g6hm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1555,25 +1526,24 @@
           <t>(0274) 376946</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F26" t="n">
-        <v>3.9</v>
+        <v>-7.809099</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.809099</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.340368</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+PGRI+1+Kasihan/@-7.8090995,110.2682702,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57e519429039:0xaa139a399d737d1!8m2!3d-7.8090995!4d110.340368!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F1hm4whltb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+PGRI+1+Kasihan/@-7.8090995,110.2682702,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57e519429039:0xaa139a399d737d1!8m2!3d-7.8090995!4d110.340368!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F1hm4whltb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1596,25 +1566,24 @@
           <t>(0274) 373454</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.4</v>
+        <v>-7.815591</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.815591</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.354471</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+SULTAN+AGUNG+YOGYAKARTA+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%B1%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A6%84%EA%A6%92%EA%A6%B8%EA%A6%81%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.8090995,110.2682702,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57bee949c919:0xa7cc1ff216ee394d!8m2!3d-7.815591!4d110.3544707!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVObDlNZGtOQkVBReABAPoBBAgAECU!16s%2Fg%2F1hm202t20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+SULTAN+AGUNG+YOGYAKARTA+%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%B1%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A6%84%EA%A6%92%EA%A6%B8%EA%A6%81%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.8090995,110.2682702,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57bee949c919:0xa7cc1ff216ee394d!8m2!3d-7.815591!4d110.3544707!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVObDlNZGtOQkVBReABAPoBBAgAECU!16s%2Fg%2F1hm202t20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1637,25 +1606,24 @@
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.3</v>
+        <v>-7.969612</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.969612</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.298547</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kretek/@-7.9696125,110.2264491,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b006f1aa5abd9:0xbcc9b38208e485f8!8m2!3d-7.9696125!4d110.2985469!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOd2JIVlhRM1ZSUlJBQuABAPoBBAgAEBw!16s%2Fg%2F1hdzw75wn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kretek/@-7.9696125,110.2264491,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b006f1aa5abd9:0xbcc9b38208e485f8!8m2!3d-7.9696125!4d110.2985469!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOd2JIVlhRM1ZSUlJBQuABAPoBBAgAEBw!16s%2Fg%2F1hdzw75wn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1682,25 +1650,24 @@
           <t>(0274) 367156</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>-7.889913</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.889913</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.355629</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Bantul/@-7.8899133,110.2835315,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b00889ad8f84d:0x2e0009ca7815eaf0!8m2!3d-7.8899133!4d110.3556293!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaWMyOHlTa2xCRUFF4AEA-gEECFIQPQ!16s%2Fg%2F11bwg7rnsk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Bantul/@-7.8899133,110.2835315,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b00889ad8f84d:0x2e0009ca7815eaf0!8m2!3d-7.8899133!4d110.3556293!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOaWMyOHlTa2xCRUFF4AEA-gEECFIQPQ!16s%2Fg%2F11bwg7rnsk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1727,25 +1694,24 @@
           <t>(0274) 2812446</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.3</v>
+        <v>-7.913725</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.913725</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.384996</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Imogiri/@-7.8899133,110.2835315,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5456ab668bcd:0x57b47cc58d094ade!8m2!3d-7.913725!4d110.3849964!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFkVGh1WmtkM0VBReABAPoBBAgAECg!16s%2Fg%2F1hm2r8z_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Imogiri/@-7.8899133,110.2835315,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5456ab668bcd:0x57b47cc58d094ade!8m2!3d-7.913725!4d110.3849964!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFkVGh1WmtkM0VBReABAPoBBAgAECg!16s%2Fg%2F1hm2r8z_d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1772,25 +1738,24 @@
           <t>0822-9892-5505</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>-7.943442</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.943442</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.290083</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+IT+AR+RAIHAN/@-7.943442,110.2179855,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff00130b7a83:0x12ba5491117c8b3c!8m2!3d-7.943442!4d110.2900833!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSU5EazJOblpuUlJBQuABAPoBBAgHEEk!16s%2Fg%2F11frnc7n7z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+IT+AR+RAIHAN/@-7.943442,110.2179855,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff00130b7a83:0x12ba5491117c8b3c!8m2!3d-7.943442!4d110.2900833!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSU5EazJOblpuUlJBQuABAPoBBAgHEEk!16s%2Fg%2F11frnc7n7z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1817,25 +1782,24 @@
           <t>(0274) 367607</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.9</v>
+        <v>-7.890892</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.890892</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.321258</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MA+Negeri+1+Bantul/@-7.943442,110.2179855,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a59ce0408bfc7:0xb7927168fc304f69!8m2!3d-7.8908916!4d110.3212577!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeGJXWmlTMWgzRUFF4AEA-gEECEYQPA!16s%2Fg%2F1pztq3ybh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MA+Negeri+1+Bantul/@-7.943442,110.2179855,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a59ce0408bfc7:0xb7927168fc304f69!8m2!3d-7.8908916!4d110.3212577!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeGJXWmlTMWgzRUFF4AEA-gEECEYQPA!16s%2Fg%2F1pztq3ybh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1862,25 +1826,24 @@
           <t>(0274) 374947</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.7</v>
+        <v>-7.815469</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.815469</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.350326</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sekolah+Menengah+Seni+Rupa/@-7.8154689,110.2782281,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57edc12c1a6b:0x9ef19b45485b93d3!8m2!3d-7.8154689!4d110.3503259!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUGNFcGhabWgzUlJBQuABAPoBBAgAEDs!16s%2Fg%2F1pzpr15kx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sekolah+Menengah+Seni+Rupa/@-7.8154689,110.2782281,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57edc12c1a6b:0x9ef19b45485b93d3!8m2!3d-7.8154689!4d110.3503259!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSUGNFcGhabWgzUlJBQuABAPoBBAgAEDs!16s%2Fg%2F1pzpr15kx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1903,25 +1866,24 @@
           <t>(0274) 6466054</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>-7.863069</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.863069</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.329372</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Sewon/@-7.8154689,110.2782281,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55e724e681f5:0xe144cfc37be6f4da!8m2!3d-7.863069!4d110.3293724!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdk5GOXBPR3BuUlJBQuABAPoBBAhVEEg!16s%2Fg%2F1pzs0pffp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Sewon/@-7.8154689,110.2782281,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55e724e681f5:0xe144cfc37be6f4da!8m2!3d-7.863069!4d110.3293724!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSdk5GOXBPR3BuUlJBQuABAPoBBAhVEEg!16s%2Fg%2F1pzs0pffp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1944,25 +1906,24 @@
           <t>0895-3384-25447</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.7</v>
+        <v>-7.831259</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.831259</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.475436</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Piyungan%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A6%A2%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%A5%EA%A6%B6%EA%A6%AA%EA%A6%B8%EA%A6%94%EA%A6%A4%EA%A7%80/@-7.8312591,110.4033383,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a505549d5e009:0xcfeb4db4d931a623!8m2!3d-7.8312591!4d110.4754361!15sCgpTTUEgQmFudHVskgESc2VuaW9yX2hpZ2hfc2Nob29s4AEA!16s%2Fg%2F1hm40bs2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1985,25 +1946,24 @@
           <t>(0274) 379102</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.7</v>
+        <v>-7.829085</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.829085</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.360171</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Madrasah+Aliyah+Ali+Maksum%EA%A6%A9%EA%A6%A3%EA%A6%BF%EA%A6%B1%EA%A6%83%EA%A6%84%EA%A6%AD%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%84%EA%A6%AD%EA%A6%B6%EA%A6%A9%EA%A6%8F%EA%A7%80%EA%A6%B1%EA%A6%B8%EA%A6%A9%EA%A7%80/@-7.8290855,110.2880731,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57b731c61ae5:0x432c5a30f4bc7f05!8m2!3d-7.8290855!4d110.3601709!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGRGcHljM0ZuUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1hd_7gfcj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Madrasah+Aliyah+Ali+Maksum%EA%A6%A9%EA%A6%A3%EA%A6%BF%EA%A6%B1%EA%A6%83%EA%A6%84%EA%A6%AD%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%84%EA%A6%AD%EA%A6%B6%EA%A6%A9%EA%A6%8F%EA%A7%80%EA%A6%B1%EA%A6%B8%EA%A6%A9%EA%A7%80/@-7.8290855,110.2880731,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57b731c61ae5:0x432c5a30f4bc7f05!8m2!3d-7.8290855!4d110.3601709!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOUGRGcHljM0ZuUlJBQuABAPoBBAgAEEU!16s%2Fg%2F1hd_7gfcj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2026,25 +1986,24 @@
           <t>(0274) 367954</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.6</v>
+        <v>-7.902287</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.902287</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.349168</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Bantul/@-7.9022866,110.2770703,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57b02219a08d:0x50b4ad397f8cdf63!8m2!3d-7.9022866!4d110.3491681!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSE1WcGlSM2RSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b41p1dh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Bantul/@-7.9022866,110.2770703,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57b02219a08d:0x50b4ad397f8cdf63!8m2!3d-7.9022866!4d110.3491681!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSE1WcGlSM2RSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b41p1dh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2067,25 +2026,24 @@
           <t>(0274) 6498409</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.3</v>
+        <v>-7.810023</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.810023</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.281654</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Dharma+Amiluhur/@-7.8100228,110.2095561,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9cd78a42f25:0x88ba2fffbaa33284!8m2!3d-7.8100228!4d110.2816539!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMWREUk1aM0IzUlJBQuABAPoBBAgAECI!16s%2Fg%2F1pzs0p3v_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Dharma+Amiluhur/@-7.8100228,110.2095561,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7af9cd78a42f25:0x88ba2fffbaa33284!8m2!3d-7.8100228!4d110.2816539!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSMWREUk1aM0IzUlJBQuABAPoBBAgAECI!16s%2Fg%2F1pzs0p3v_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2112,25 +2070,24 @@
           <t>(0274) 6593198</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-7.85995</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.85995</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.360111</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Pelita+Buana/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a556f66a0caad:0xaff847e387e7c9b2!8m2!3d-7.8599502!4d110.3601111!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSVVoxazNWSEZCUlJBQuABAPoBBAgAEA8!16s%2Fg%2F1pztvfn_7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Pelita+Buana/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a556f66a0caad:0xaff847e387e7c9b2!8m2!3d-7.8599502!4d110.3601111!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSVVoxazNWSEZCUlJBQuABAPoBBAgAEA8!16s%2Fg%2F1pztvfn_7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2150,22 +2107,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.806856</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.806856</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.339626</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+Pembangunan+Yogyakarta/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57fb00000001:0x74849aebc9469015!8m2!3d-7.8068556!4d110.3396262!15sCgpTTUEgQmFudHVskgENcHVibGljX3NjaG9vbOABAA!16s%2Fg%2F1pzx97hpp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2188,25 +2144,24 @@
           <t>(0274) 374467</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.3</v>
+        <v>-7.816072</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.816072</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.349795</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMKI+Yogyakarta+(SMK+Negeri+1+Kasihan)/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ea227107e3:0x8705db5be54839bf!8m2!3d-7.8160723!4d110.3497946!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONk56aDJWMmxSUlJBQuABAPoBBAgAEBU!16s%2Fg%2F1pzr6xfpc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMKI+Yogyakarta+(SMK+Negeri+1+Kasihan)/@-7.8599502,110.2880133,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ea227107e3:0x8705db5be54839bf!8m2!3d-7.8160723!4d110.3497946!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VONk56aDJWMmxSUlJBQuABAPoBBAgAEBU!16s%2Fg%2F1pzr6xfpc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2229,25 +2184,24 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.836889</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.836889</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.412101</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Botanical+Smartpark+SMA+UII+Yogyakarta/@-7.8368888,110.3400033,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5783fd6ac209:0xe9e8607120de45d5!8m2!3d-7.8368888!4d110.4121011!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTFhVzlRVkhkM1JSQULgAQD6AQQIABA2!16s%2Fg%2F11ry2sbt17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Botanical+Smartpark+SMA+UII+Yogyakarta/@-7.8368888,110.3400033,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a5783fd6ac209:0xe9e8607120de45d5!8m2!3d-7.8368888!4d110.4121011!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTFhVzlRVkhkM1JSQULgAQD6AQQIABA2!16s%2Fg%2F11ry2sbt17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2274,25 +2228,24 @@
           <t>0878-2867-0679</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.6</v>
+        <v>-7.891074</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.891074</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.327616</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Muhammadiyah+Boarding+School+%7C+MBS-Muhiba+Yogyakarta/@-7.8910743,110.2555184,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff59da36b771:0x8cfbb85dedb1f74a!8m2!3d-7.8910743!4d110.3276162!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQ9ib2FyZGluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmhia2wxWnpsUlJSQULgAQD6AQUIjAIQOQ!16s%2Fg%2F1tc_yx71?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Muhammadiyah+Boarding+School+%7C+MBS-Muhiba+Yogyakarta/@-7.8910743,110.2555184,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff59da36b771:0x8cfbb85dedb1f74a!8m2!3d-7.8910743!4d110.3276162!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQ9ib2FyZGluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmhia2wxWnpsUlJSQULgAQD6AQUIjAIQOQ!16s%2Fg%2F1tc_yx71?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2319,25 +2272,24 @@
           <t>(0274) 374627</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.6</v>
+        <v>-7.81428</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.81428</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.350086</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+2+Kasihan%2FSMM+Yogyakarta/@-7.8142801,110.2779877,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ea2a57a02b:0xc64a7c7ea55e7f1f!8m2!3d-7.8142801!4d110.3500855!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQxtdXNpY19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFNblJUUVd4M1JSQULgAQD6AQQIQxAl!16s%2Fg%2F1hm61nm0w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+2+Kasihan%2FSMM+Yogyakarta/@-7.8142801,110.2779877,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ea2a57a02b:0xc64a7c7ea55e7f1f!8m2!3d-7.8142801!4d110.3500855!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQxtdXNpY19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFNblJUUVd4M1JSQULgAQD6AQQIQxAl!16s%2Fg%2F1hm61nm0w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2364,25 +2316,24 @@
           <t>(0274) 489693</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.8</v>
+        <v>-7.81433</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.81433</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.376034</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+UII+Yogyakarta/@-7.8142801,110.2779877,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a59dee3b185cb:0x807da5c3419221f1!8m2!3d-7.81433!4d110.376034!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjJNell6ZWxoUkVBReABAPoBBAgAECw!16s%2Fg%2F1hm3c8ymv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+UII+Yogyakarta/@-7.8142801,110.2779877,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a59dee3b185cb:0x807da5c3419221f1!8m2!3d-7.81433!4d110.376034!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjJNell6ZWxoUkVBReABAPoBBAgAECw!16s%2Fg%2F1hm3c8ymv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2401,25 +2352,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.2</v>
+        <v>-7.883585</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.883585</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.331371</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Nasional+Bantul+Yogyakarta/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55bc31a975cb:0xdd9893d7254506cd!8m2!3d-7.8835855!4d110.3313711!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJNalptZW5ablJSQULgAQD6AQQIKBA-!16s%2Fg%2F11hznhbc_b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Nasional+Bantul+Yogyakarta/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55bc31a975cb:0xdd9893d7254506cd!8m2!3d-7.8835855!4d110.3313711!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJNalptZW5ablJSQULgAQD6AQQIKBA-!16s%2Fg%2F11hznhbc_b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2442,25 +2392,24 @@
           <t>(0274) 6460410</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.2</v>
+        <v>-7.923555</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.923555</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.311661</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Bambanglipuro/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff9871276f6b:0xc70680e1b413d861!8m2!3d-7.9235547!4d110.3116611!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGNFNXVVa3QzRUFF4AEA-gEECAAQQQ!16s%2Fg%2F1hm1ynztt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Bambanglipuro/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff9871276f6b:0xc70680e1b413d861!8m2!3d-7.9235547!4d110.3116611!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUGNFNXVVa3QzRUFF4AEA-gEECAAQQQ!16s%2Fg%2F1hm1ynztt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2487,25 +2436,24 @@
           <t>(0274) 367191</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.9</v>
+        <v>-7.894568</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.894568</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.332723</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55fed219e9e5:0x8622b985cb23e1a3!8m2!3d-7.8945678!4d110.3327232!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSE0wNTFUWFJSUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1pzv3w0dd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55fed219e9e5:0x8622b985cb23e1a3!8m2!3d-7.8945678!4d110.3327232!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSE0wNTFUWFJSUlJBQuABAPoBBAgAECQ!16s%2Fg%2F1pzv3w0dd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -2532,25 +2480,24 @@
           <t>(0274) 2811974</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>-7.861248</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.861248</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.35339</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Pendidikan+Menengah+Kabupaten+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55f3e8216f41:0x88021ece5b744059!8m2!3d-7.8612477!4d110.35339!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARdlZHVjYXRpb25hbF9pbnN0aXR1dGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ09UWmZMV3RSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b6p0tv5m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Pendidikan+Menengah+Kabupaten+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a55f3e8216f41:0x88021ece5b744059!8m2!3d-7.8612477!4d110.35339!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARdlZHVjYXRpb25hbF9pbnN0aXR1dGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOQ09UWmZMV3RSUlJBQuABAPoBBAgAEEY!16s%2Fg%2F11b6p0tv5m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2573,25 +2520,24 @@
           <t>0897-5988-501</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-7.878686</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.878686</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.333932</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+17+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57a635240127:0x6724be3015f9cb95!8m2!3d-7.8786865!4d110.3339321!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdE4zTklla1puRUFF4AEA-gEECAAQKA!16s%2Fg%2F11r6yr3lxg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+17+Bantul/@-7.8835855,110.2592733,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57a635240127:0x6724be3015f9cb95!8m2!3d-7.8786865!4d110.3339321!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSdE4zTklla1puRUFF4AEA-gEECAAQKA!16s%2Fg%2F11r6yr3lxg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2618,25 +2564,24 @@
           <t>(0274) 452188</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.4</v>
+        <v>-7.805909</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.805909</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.408156</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+4+Bantul/@-7.8059095,110.3360579,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57435c276bcf:0x4e7e3c3eab7c3e5c!8m2!3d-7.8059095!4d110.4081557!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRkR1V5UmtwQkVBReABAPoBBAgAECQ!16s%2Fg%2F11cjw7lgxs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+4+Bantul/@-7.8059095,110.3360579,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57435c276bcf:0x4e7e3c3eab7c3e5c!8m2!3d-7.8059095!4d110.4081557!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRkR1V5UmtwQkVBReABAPoBBAgAECQ!16s%2Fg%2F11cjw7lgxs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2663,25 +2608,24 @@
           <t>0852-2801-5905</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>-7.964996</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.964996</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.320575</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+PARIWISATA+BANTUL/@-7.964996,110.2484772,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b0002e84c978f:0xb306528b2ace56fb!8m2!3d-7.964996!4d110.320575!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F11b6s3lh2_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+PARIWISATA+BANTUL/@-7.964996,110.2484772,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7b0002e84c978f:0xb306528b2ace56fb!8m2!3d-7.964996!4d110.320575!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbOABAA!16s%2Fg%2F11b6s3lh2_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2700,25 +2644,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.893983</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.893983</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.431443</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Asrama+Putri+SMA+MBS+Pleret,+Bantul,+Yogyakarta/@-7.8939825,110.3593454,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a53f49a798285:0xc151c0d1f9571f6c!8m2!3d-7.8939825!4d110.4314432!15sCgpTTUEgQmFudHVskgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F11fz55hgrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Asrama+Putri+SMA+MBS+Pleret,+Bantul,+Yogyakarta/@-7.8939825,110.3593454,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a53f49a798285:0xc151c0d1f9571f6c!8m2!3d-7.8939825!4d110.4314432!15sCgpTTUEgQmFudHVskgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F11fz55hgrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2737,25 +2680,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.4</v>
+        <v>-7.921666</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.921666</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.295747</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+N+1+Pandak/@-7.9216664,110.2236494,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff086d733939:0xb21aa8b4a860a56a!8m2!3d-7.9216664!4d110.2957472!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWU1GQkRSR05CRUFF4AEA-gEECEEQRQ!16s%2Fg%2F1hm59_gm3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+N+1+Pandak/@-7.9216664,110.2236494,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff086d733939:0xb21aa8b4a860a56a!8m2!3d-7.9216664!4d110.2957472!15sCgpTTUEgQmFudHVsWgwiCnNtYSBiYW50dWySARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSWU1GQkRSR05CRUFF4AEA-gEECEEQRQ!16s%2Fg%2F1hm59_gm3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -2778,25 +2720,24 @@
           <t>(0274) 4283403</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.8</v>
+        <v>-7.825254</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.825254</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.360768</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Komplek+Tahfidz+Putri+SMP-SMA/@-7.825254,110.2886699,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ba28ed717b:0x82398cf1b2f78d3d!8m2!3d-7.825254!4d110.3607677!15sCgpTTUEgQmFudHVskgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F11f53h61xp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Komplek+Tahfidz+Putri+SMP-SMA/@-7.825254,110.2886699,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7a57ba28ed717b:0x82398cf1b2f78d3d!8m2!3d-7.825254!4d110.3607677!15sCgpTTUEgQmFudHVskgEQcmVsaWdpb3VzX3NjaG9vbOABAA!16s%2Fg%2F11f53h61xp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2819,25 +2760,24 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-7.897751</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.897751</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.322386</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/FILIAL/@-7.8977509,110.2502884,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5c5c08dcf1:0xd98b7c1ab31f5ebe!8m2!3d-7.8977509!4d110.3223862!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F11c2q3t20_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/FILIAL/@-7.8977509,110.2502884,13z/data=!4m10!1m2!2m1!1sSMA+Bantul!3m6!1s0x2e7aff5c5c08dcf1:0xd98b7c1ab31f5ebe!8m2!3d-7.8977509!4d110.3223862!15sCgpTTUEgQmFudHVskgEGc2Nob29s4AEA!16s%2Fg%2F11c2q3t20_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
